--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_06_end.xlsx
@@ -1080,11 +1080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Could they have forgotten about us?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Day after day, year after year, all that they ever do is attack the village for naught... it's wretched, and heartwrenching!
+    <t xml:space="preserve">[name="Mr. Nothing"]Could they have forgotten about us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Day after day, year after year, all that they ever do is attack the village for naught... it's wretched, and heartwrenching!
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]They—I suppose they just might be able to speak.
+    <t xml:space="preserve">[name="Mr. Nothing"]They—I suppose they just might be able to speak.
 </t>
   </si>
   <si>
@@ -1136,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My... Never in a thousand moons would I have imagined the person you are looking for could be so... extraordinary.
+    <t xml:space="preserve">[name="Mr. Nothing"]My... Never in a thousand moons would I have imagined the person you are looking for could be so... extraordinary.
 </t>
   </si>
   <si>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Uhh, I know of this Boulder of Pei-Hsüan. I was under the impression it was destroyed years ago during a Catastrophe?
+    <t xml:space="preserve">[name="Mr. Nothing"]Uhh, I know of this Boulder of Pei-Hsüan. I was under the impression it was destroyed years ago during a Catastrophe?
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]How many years ago was that?!
+    <t xml:space="preserve">[name="Mr. Nothing"]How many years ago was that?!
 </t>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Could it be the sisters are not on the best of terms?
+    <t xml:space="preserve">[name="Mr. Nothing"]Could it be the sisters are not on the best of terms?
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Allow me? Oh, have you shown this to the storyteller?
+    <t xml:space="preserve">[name="Mr. Nothing"]Allow me? Oh, have you shown this to the storyteller?
 </t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Err, if I may, there is actually one other thing that has left me quite perplexed...
+    <t xml:space="preserve">[name="Mr. Nothing"]Err, if I may, there is actually one other thing that has left me quite perplexed...
 </t>
   </si>
   <si>
@@ -1260,7 +1260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well, I mean, my benefactor, you saw me take on one of the fiends, did you not?
+    <t xml:space="preserve">[name="Mr. Nothing"]Well, I mean, my benefactor, you saw me take on one of the fiends, did you not?
 </t>
   </si>
   <si>
@@ -1268,7 +1268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Precisely!
+    <t xml:space="preserve">[name="Mr. Nothing"]Precisely!
 </t>
   </si>
   <si>
@@ -1276,7 +1276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well... I am but a defenseless layman in the martial arts. Be that as it may, I cracked an entire canister of whoop-ass on the fiend. Surely you too must find that strange!
+    <t xml:space="preserve">[name="Mr. Nothing"]Well... I am but a defenseless layman in the martial arts. Be that as it may, I cracked an entire canister of whoop-ass on the fiend. Surely you too must find that strange!
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—*Cough* *cough*! Umm, well, I have a few tricks up my sleeve—Now, I implore you, don't get the wrong idea. It's not that I don't want to do my part in our battle against the monsters. I just have my reasons—
+    <t xml:space="preserve">[name="Mr. Nothing"]—*Cough* *cough*! Umm, well, I have a few tricks up my sleeve—Now, I implore you, don't get the wrong idea. It's not that I don't want to do my part in our battle against the monsters. I just have my reasons—
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Um, my benefactor, certainly you believe me?
+    <t xml:space="preserve">[name="Mr. Nothing"]Um, my benefactor, certainly you believe me?
 </t>
   </si>
   <si>
@@ -1304,11 +1304,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]H-Haha, please, don't give me that look. I'm trying my best now, am I not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Right! It's getting late! Let's make our way to the storyteller and check on him! He is ill, is he not?
+    <t xml:space="preserve">[name="Mr. Nothing"]H-Haha, please, don't give me that look. I'm trying my best now, am I not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Right! It's getting late! Let's make our way to the storyteller and check on him! He is ill, is he not?
 </t>
   </si>
   <si>
@@ -1324,11 +1324,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Why, uh... I'm from quite far away. I'm merely passing through, but with all the men in the village singing the praises of your storytelling, I had to come hear for myself!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But if you're indisposed, then we could... pay you a visit another day. Yes, we shall return, haha.
+    <t xml:space="preserve">[name="Mr. Nothing"]Why, uh... I'm from quite far away. I'm merely passing through, but with all the men in the village singing the praises of your storytelling, I had to come hear for myself!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]But if you're indisposed, then we could... pay you a visit another day. Yes, we shall return, haha.
 </t>
   </si>
   <si>
@@ -1364,11 +1364,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Why, this is peculiar. I walked out of this very house in the morning and went on a stroll, and now I'm being invited to stay here anew... This really makes no sense!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well, my benefactors...
+    <t xml:space="preserve">[name="Mr. Nothing"]Why, this is peculiar. I walked out of this very house in the morning and went on a stroll, and now I'm being invited to stay here anew... This really makes no sense!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Well, my benefactors...
 </t>
   </si>
   <si>
@@ -1376,11 +1376,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Uh... Haha... *Ahem*. I am not getting out of this one, am I? I understand.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well... Where should I begin...? After all, I've been deceiving the two of you right from the start.
+    <t xml:space="preserve">[name="Mr. Nothing"]Uh... Haha... *Ahem*. I am not getting out of this one, am I? I understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Well... Where should I begin...? After all, I've been deceiving the two of you right from the start.
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Please accept my apologies.
+    <t xml:space="preserve">[name="Mr. Nothing"]Please accept my apologies.
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]You have my thanks.
+    <t xml:space="preserve">[name="Mr. Nothing"]You have my thanks.
 </t>
   </si>
   <si>
@@ -1404,55 +1404,55 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]No... my hometown is farther north. Just your regular small town.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I had resigned myself to live a normal, uninteresting life as a plowboy. That summer, a few men from the cities came to our town, led by a fine, magnificent lady. She said I was the one they sought.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I was just thirteen at the time. They brought me to Kou-wu to a martial arts school, the Liens, and she was its master.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]That's how I met my master, and all there was to it. I had room and board, and when I had the time, I could help out at construction sites and earn some coin to send to my family back home.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I remained diligent over the past ten years, but never once did I think my master did me a favor for taking me in.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I made it a point to rely on none but myself. I would rather go without a meal than be looked down upon by my master.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But... she was getting on in years. I once thought her formidable, matchless, even. But she was seriously ill. Couldn't even get a decent night's sleep.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]That was when I came to realize I could stay there no longer. All my fellow disciples had left, and it was my time to do so as well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But... last year, I killed someone by accident. Someone whom I should not have killed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I thought it was a friendly match between dojos. It wasn't until much later that I found out the man had sold his life. He was meant to die by my hands.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]The Lien style's reputation was already on its last legs, but they wanted to defame our name nonetheless. It was all a ploy to bring my master to swallow her pride and get her down on her knees.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—And then—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My master, her hair white as ash and braided just like my mother's, stood before all and spilled her own blood as the rules dictated!
+    <t xml:space="preserve">[name="Mr. Nothing"]No... my hometown is farther north. Just your regular small town.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I had resigned myself to live a normal, uninteresting life as a plowboy. That summer, a few men from the cities came to our town, led by a fine, magnificent lady. She said I was the one they sought.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I was just thirteen at the time. They brought me to Kou-wu to a martial arts school, the Liens, and she was its master.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]That's how I met my master, and all there was to it. I had room and board, and when I had the time, I could help out at construction sites and earn some coin to send to my family back home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I remained diligent over the past ten years, but never once did I think my master did me a favor for taking me in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I made it a point to rely on none but myself. I would rather go without a meal than be looked down upon by my master.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]But... she was getting on in years. I once thought her formidable, matchless, even. But she was seriously ill. Couldn't even get a decent night's sleep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]That was when I came to realize I could stay there no longer. All my fellow disciples had left, and it was my time to do so as well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]But... last year, I killed someone by accident. Someone whom I should not have killed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I thought it was a friendly match between dojos. It wasn't until much later that I found out the man had sold his life. He was meant to die by my hands.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]The Lien style's reputation was already on its last legs, but they wanted to defame our name nonetheless. It was all a ploy to bring my master to swallow her pride and get her down on her knees.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]—And then—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]My master, her hair white as ash and braided just like my mother's, stood before all and spilled her own blood as the rules dictated!
 </t>
   </si>
   <si>
@@ -1460,43 +1460,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]'Rules!' It's murder, I tell you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I brought my unconscious master back, but they had our school completely surrounded.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I could not call for an ambulance, let alone my fellow disciples!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]All I could do was watch her body turn cold. Their men stood outside, unmoving until they saw my poor master buried.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My master left me with this fan. I don't have the courage to use it, and certainly not the moves she taught me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]The school was lost, and I had no way to get in touch with my fellow disciples. So I concealed my identity, masquerading as a fortune teller, a Messenger.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But no matter the case, I did whatever it took to leave that city, and I will make my way to the capital or Lungmen, wherever. The more people there, the better—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—Then, one day, I shall return to Kou-wu City and make things right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]That is the story... my benefactor, Kroos, what you said on the day of the rescue. You had the right of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]All those years I spent in Kou-wu City... I wasted.
+    <t xml:space="preserve">[name="Mr. Nothing"]'Rules!' It's murder, I tell you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I brought my unconscious master back, but they had our school completely surrounded.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I could not call for an ambulance, let alone my fellow disciples!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]All I could do was watch her body turn cold. Their men stood outside, unmoving until they saw my poor master buried.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]My master left me with this fan. I don't have the courage to use it, and certainly not the moves she taught me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]The school was lost, and I had no way to get in touch with my fellow disciples. So I concealed my identity, masquerading as a fortune teller, a Messenger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]But no matter the case, I did whatever it took to leave that city, and I will make my way to the capital or Lungmen, wherever. The more people there, the better—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]—Then, one day, I shall return to Kou-wu City and make things right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]That is the story... my benefactor, Kroos, what you said on the day of the rescue. You had the right of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]All those years I spent in Kou-wu City... I wasted.
 </t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Correct... the villains had men in every corner of Kou-wu City! I watched in hiding from a nearby village, but luck was not on my side. In the end, my only choice was to find myself a car and skip town—
+    <t xml:space="preserve">[name="Mr. Nothing"]Correct... the villains had men in every corner of Kou-wu City! I watched in hiding from a nearby village, but luck was not on my side. In the end, my only choice was to find myself a car and skip town—
 </t>
   </si>
   <si>
@@ -1516,11 +1516,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Leave me alone?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]If they had their minds set on leaving anyone alone, I doubt they would bend the rules to kill!
+    <t xml:space="preserve">[name="Mr. Nothing"]Leave me alone?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]If they had their minds set on leaving anyone alone, I doubt they would bend the rules to kill!
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]*sobs*, my benefactor! Your reason moves me! As your stalwart underling, rest assured I'll do all that it takes to return the favor, come hell or high water!
+    <t xml:space="preserve">[name="Mr. Nothing"]*sobs*, my benefactor! Your reason moves me! As your stalwart underling, rest assured I'll do all that it takes to return the favor, come hell or high water!
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactor... you wouldn't think I'm still lying, would you?
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactor... you wouldn't think I'm still lying, would you?
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]하아……
+    <t xml:space="preserve">[name="라바"]하아…… 맘대로 해라……
 </t>
   </si>
   <si>
